--- a/Code/Results/Cases/Case_4_177/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_177/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.357089177052103</v>
+        <v>3.104166210929861</v>
       </c>
       <c r="C2">
-        <v>0.3798798454627104</v>
+        <v>0.1070510703279695</v>
       </c>
       <c r="D2">
-        <v>0.2569737988018801</v>
+        <v>0.4751578269798671</v>
       </c>
       <c r="E2">
-        <v>0.05668988648503515</v>
+        <v>0.1358606409969916</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.292554294309213</v>
+        <v>3.718735986197402</v>
       </c>
       <c r="H2">
-        <v>1.879523742396373</v>
+        <v>2.732116817893342</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02391307374978524</v>
+        <v>0.04135229587989553</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3959001551890537</v>
+        <v>0.5765860246627597</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.940350954925634</v>
+        <v>3.021990669697857</v>
       </c>
       <c r="C3">
-        <v>0.3290078939803607</v>
+        <v>0.09358758368014719</v>
       </c>
       <c r="D3">
-        <v>0.2416636805807713</v>
+        <v>0.4740562597430227</v>
       </c>
       <c r="E3">
-        <v>0.05594270443233995</v>
+        <v>0.1362274353605031</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.035414253416917</v>
+        <v>3.670681800054581</v>
       </c>
       <c r="H3">
-        <v>1.76872820860109</v>
+        <v>2.717013883749246</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0234342732950239</v>
+        <v>0.04113641471810769</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3577878337134024</v>
+        <v>0.5711437283538174</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.689822899785611</v>
+        <v>2.973545632776791</v>
       </c>
       <c r="C4">
-        <v>0.2981432966125794</v>
+        <v>0.08535406081310271</v>
       </c>
       <c r="D4">
-        <v>0.2326838568471175</v>
+        <v>0.4735753984476929</v>
       </c>
       <c r="E4">
-        <v>0.05554788730960958</v>
+        <v>0.1364890244904036</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.884093848097052</v>
+        <v>3.642943213616405</v>
       </c>
       <c r="H4">
-        <v>1.704123857199846</v>
+        <v>2.70886909298099</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0231406791740536</v>
+        <v>0.04099979563715372</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3350793578917148</v>
+        <v>0.5681073514895445</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.588918083732551</v>
+        <v>2.954309131880734</v>
       </c>
       <c r="C5">
-        <v>0.2856411673601542</v>
+        <v>0.08200701827757939</v>
       </c>
       <c r="D5">
-        <v>0.229121893370845</v>
+        <v>0.4734285704765426</v>
       </c>
       <c r="E5">
-        <v>0.05540224196578869</v>
+        <v>0.1366047744477612</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.823917190861749</v>
+        <v>3.632080969258482</v>
       </c>
       <c r="H5">
-        <v>1.678581621657372</v>
+        <v>2.705832626601421</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02302095028265327</v>
+        <v>0.04094309488491366</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3259827883489805</v>
+        <v>0.566946708174541</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.572230282382407</v>
+        <v>2.951145428963571</v>
       </c>
       <c r="C6">
-        <v>0.2835692656964</v>
+        <v>0.08145173476222567</v>
       </c>
       <c r="D6">
-        <v>0.2285360826683416</v>
+        <v>0.473407155989463</v>
       </c>
       <c r="E6">
-        <v>0.05537895538251369</v>
+        <v>0.1366245473936907</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.814010253980285</v>
+        <v>3.630303881932917</v>
       </c>
       <c r="H6">
-        <v>1.674385626781344</v>
+        <v>2.705345458358863</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02300105909749384</v>
+        <v>0.04093361758331415</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3244813477458734</v>
+        <v>0.5667586158630797</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.688457452896159</v>
+        <v>2.973284157473529</v>
       </c>
       <c r="C7">
-        <v>0.2979744053934894</v>
+        <v>0.08530888846684093</v>
       </c>
       <c r="D7">
-        <v>0.2326354351946662</v>
+        <v>0.4735732194046136</v>
       </c>
       <c r="E7">
-        <v>0.05554586240873149</v>
+        <v>0.1364905484811878</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.88327646643279</v>
+        <v>3.642794937928358</v>
       </c>
       <c r="H7">
-        <v>1.703776305328233</v>
+        <v>2.708826999461081</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02313906505078211</v>
+        <v>0.040999035116843</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3349560625587316</v>
+        <v>0.5680913881265184</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.212187280961928</v>
+        <v>3.075414358624698</v>
       </c>
       <c r="C8">
-        <v>0.3622508898419028</v>
+        <v>0.1024018965026698</v>
       </c>
       <c r="D8">
-        <v>0.2516022720399462</v>
+        <v>0.4747374066833316</v>
       </c>
       <c r="E8">
-        <v>0.05641845713075355</v>
+        <v>0.1359795636712864</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.202427049014318</v>
+        <v>3.701798451779183</v>
       </c>
       <c r="H8">
-        <v>1.84056237568501</v>
+        <v>2.726674400826937</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02374778406469247</v>
+        <v>0.04127870134942491</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3826046192071715</v>
+        <v>0.5746461422154141</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.289701172939203</v>
+        <v>3.291686900319746</v>
       </c>
       <c r="C9">
-        <v>0.4921513559192192</v>
+        <v>0.1361923589979881</v>
       </c>
       <c r="D9">
-        <v>0.2925570284291297</v>
+        <v>0.4785738972673528</v>
       </c>
       <c r="E9">
-        <v>0.05867912382174012</v>
+        <v>0.1352660634907767</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.888589952896893</v>
+        <v>3.831661117703646</v>
       </c>
       <c r="H9">
-        <v>2.139832390780924</v>
+        <v>2.770683840174684</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02495416893630065</v>
+        <v>0.04179508073577587</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4823929978227284</v>
+        <v>0.5899254255013915</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.124882898723683</v>
+        <v>3.460412948906878</v>
       </c>
       <c r="C10">
-        <v>0.5913972369858698</v>
+        <v>0.161198027986984</v>
       </c>
       <c r="D10">
-        <v>0.3256081326450158</v>
+        <v>0.4823438296671867</v>
       </c>
       <c r="E10">
-        <v>0.06074129975242393</v>
+        <v>0.1349177229060352</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.442484140843419</v>
+        <v>3.93590580236048</v>
       </c>
       <c r="H10">
-        <v>2.384731208099993</v>
+        <v>2.808595873223481</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02586383092622135</v>
+        <v>0.04215526569708317</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5609342800884747</v>
+        <v>0.6026373009228507</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.517642465847075</v>
+        <v>3.539325108957314</v>
       </c>
       <c r="C11">
-        <v>0.6377614109699437</v>
+        <v>0.1726162168465351</v>
       </c>
       <c r="D11">
-        <v>0.3414622902495381</v>
+        <v>0.4842664409970467</v>
       </c>
       <c r="E11">
-        <v>0.06178388564474346</v>
+        <v>0.1347974457481662</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.708688781606782</v>
+        <v>3.985292964906876</v>
       </c>
       <c r="H11">
-        <v>2.503180908852471</v>
+        <v>2.827073271420431</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02628697250919387</v>
+        <v>0.04231502900741546</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5981566046653057</v>
+        <v>0.6087448649761313</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.668544972051848</v>
+        <v>3.569518609519662</v>
       </c>
       <c r="C12">
-        <v>0.655531608095572</v>
+        <v>0.1769464013268589</v>
       </c>
       <c r="D12">
-        <v>0.3476007587316161</v>
+        <v>0.4850244132779125</v>
       </c>
       <c r="E12">
-        <v>0.06219540342817886</v>
+        <v>0.1347573906856407</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.811876005451097</v>
+        <v>4.004280716410676</v>
       </c>
       <c r="H12">
-        <v>2.549205259141615</v>
+        <v>2.83424864685054</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02644897605889263</v>
+        <v>0.04237494517206564</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6125014938399289</v>
+        <v>0.611104477439369</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.635943018642365</v>
+        <v>3.563002044412258</v>
       </c>
       <c r="C13">
-        <v>0.651694328917813</v>
+        <v>0.1760135325757801</v>
       </c>
       <c r="D13">
-        <v>0.3462724336552725</v>
+        <v>0.4848598386302996</v>
       </c>
       <c r="E13">
-        <v>0.06210600287021784</v>
+        <v>0.134765773024581</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.789541016227588</v>
+        <v>4.000178596798605</v>
       </c>
       <c r="H13">
-        <v>2.539238298179896</v>
+        <v>2.832695345659943</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02641399940985245</v>
+        <v>0.0423620669920961</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6094003528266825</v>
+        <v>0.6105942091835743</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.530011701325748</v>
+        <v>3.541802904646261</v>
       </c>
       <c r="C14">
-        <v>0.6392188652656898</v>
+        <v>0.172972335104788</v>
       </c>
       <c r="D14">
-        <v>0.3419644965587452</v>
+        <v>0.4843281998071802</v>
       </c>
       <c r="E14">
-        <v>0.06181739596194724</v>
+        <v>0.1347940403372121</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.717128237546603</v>
+        <v>3.986849350036152</v>
       </c>
       <c r="H14">
-        <v>2.506942926620638</v>
+        <v>2.827660010874524</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02630026247166484</v>
+        <v>0.0423199699967185</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5993315466455726</v>
+        <v>0.60893805299402</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.465419268212713</v>
+        <v>3.528858371386093</v>
       </c>
       <c r="C15">
-        <v>0.6316062678950232</v>
+        <v>0.1711103482123235</v>
       </c>
       <c r="D15">
-        <v>0.3393438704363518</v>
+        <v>0.4840064541557467</v>
       </c>
       <c r="E15">
-        <v>0.06164284669147158</v>
+        <v>0.1348120700263102</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.673094209980832</v>
+        <v>3.978722131386007</v>
       </c>
       <c r="H15">
-        <v>2.487318514086326</v>
+        <v>2.824598994854512</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02623083963493045</v>
+        <v>0.04229410862968308</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5931977407583418</v>
+        <v>0.6079297085489799</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.099500269616613</v>
+        <v>3.455299348876395</v>
       </c>
       <c r="C16">
-        <v>0.5883948394804293</v>
+        <v>0.1604527029185476</v>
       </c>
       <c r="D16">
-        <v>0.3245899107379273</v>
+        <v>0.4822223661185205</v>
       </c>
       <c r="E16">
-        <v>0.06067540577009822</v>
+        <v>0.1349263517003685</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.425400960168446</v>
+        <v>3.932718066438753</v>
       </c>
       <c r="H16">
-        <v>2.377144892941146</v>
+        <v>2.807413219510181</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02583640027605227</v>
+        <v>0.04214474297418214</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5585346291938436</v>
+        <v>0.6022447023804745</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.878525673211072</v>
+        <v>3.410726552409528</v>
       </c>
       <c r="C17">
-        <v>0.5622229916752701</v>
+        <v>0.1539257198647874</v>
       </c>
       <c r="D17">
-        <v>0.3157600007385355</v>
+        <v>0.4811811127629966</v>
       </c>
       <c r="E17">
-        <v>0.06010980194385951</v>
+        <v>0.1350062399986331</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.277318011279817</v>
+        <v>3.905001824636003</v>
       </c>
       <c r="H17">
-        <v>2.311465792861753</v>
+        <v>2.797186564101366</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02559709625822393</v>
+        <v>0.04205206877331769</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5376756743302877</v>
+        <v>0.5988404071107283</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.752612412752455</v>
+        <v>3.385292507421013</v>
       </c>
       <c r="C18">
-        <v>0.5472815609456916</v>
+        <v>0.1501756063244102</v>
       </c>
       <c r="D18">
-        <v>0.3107572073193978</v>
+        <v>0.4806017525541506</v>
       </c>
       <c r="E18">
-        <v>0.05979420278281999</v>
+        <v>0.1350557837221285</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.193461849826207</v>
+        <v>3.889245004014214</v>
       </c>
       <c r="H18">
-        <v>2.274341271389829</v>
+        <v>2.791420249519575</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02546030379394359</v>
+        <v>0.0419983800713446</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5258163670725367</v>
+        <v>0.596912918556086</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.710174734015027</v>
+        <v>3.376715824723192</v>
       </c>
       <c r="C19">
-        <v>0.5422408039779896</v>
+        <v>0.1489065697950309</v>
       </c>
       <c r="D19">
-        <v>0.3090759088935329</v>
+        <v>0.4804089455388407</v>
       </c>
       <c r="E19">
-        <v>0.05968896836696125</v>
+        <v>0.1350731756567871</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.165286427089569</v>
+        <v>3.88394166176181</v>
       </c>
       <c r="H19">
-        <v>2.261879170591982</v>
+        <v>2.78948771967481</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0254141221544657</v>
+        <v>0.0419801357356242</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5218237674630899</v>
+        <v>0.5962655520469866</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.901923881085963</v>
+        <v>3.41545038173291</v>
       </c>
       <c r="C20">
-        <v>0.5649971882232308</v>
+        <v>0.1546201094986372</v>
       </c>
       <c r="D20">
-        <v>0.3166919846646152</v>
+        <v>0.4812899330873393</v>
       </c>
       <c r="E20">
-        <v>0.06016899386595753</v>
+        <v>0.1349973637770088</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.292943099061233</v>
+        <v>3.907933113516634</v>
       </c>
       <c r="H20">
-        <v>2.31838886342706</v>
+        <v>2.798263215666196</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02562247986004529</v>
+        <v>0.04206197390575817</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5398816051051938</v>
+        <v>0.5991996353983637</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.561064463515834</v>
+        <v>3.548021153205298</v>
       </c>
       <c r="C21">
-        <v>0.6428770943294921</v>
+        <v>0.1738654343031101</v>
       </c>
       <c r="D21">
-        <v>0.3432260339793629</v>
+        <v>0.4844835424646448</v>
       </c>
       <c r="E21">
-        <v>0.06190169854624017</v>
+        <v>0.1347855885059648</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.738330083729466</v>
+        <v>3.990756687581779</v>
       </c>
       <c r="H21">
-        <v>2.516395736334857</v>
+        <v>2.829134158443935</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02633361798075917</v>
+        <v>0.04233235068027241</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6022819211903538</v>
+        <v>0.6094232349989994</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.00470646757168</v>
+        <v>3.636478058440048</v>
       </c>
       <c r="C22">
-        <v>0.6950404375882897</v>
+        <v>0.1864805524337498</v>
       </c>
       <c r="D22">
-        <v>0.3613633659163895</v>
+        <v>0.4867451843504824</v>
       </c>
       <c r="E22">
-        <v>0.063132507621809</v>
+        <v>0.1346791889329229</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.043489615452131</v>
+        <v>4.046554680358383</v>
       </c>
       <c r="H22">
-        <v>2.652715318280627</v>
+        <v>2.850350519552478</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0268089543384491</v>
+        <v>0.0425056632534595</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.644539158484875</v>
+        <v>0.6163778447107973</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.766628354906743</v>
+        <v>3.589100630513656</v>
       </c>
       <c r="C23">
-        <v>0.6670699647714855</v>
+        <v>0.1797441614265836</v>
       </c>
       <c r="D23">
-        <v>0.3516039950129937</v>
+        <v>0.4855221218375192</v>
       </c>
       <c r="E23">
-        <v>0.06246597520965835</v>
+        <v>0.1347330474698634</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.879208434201814</v>
+        <v>4.016620541295083</v>
       </c>
       <c r="H23">
-        <v>2.579268346981564</v>
+        <v>2.838931294206759</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02655413008091578</v>
+        <v>0.04241347200254353</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6218377788949425</v>
+        <v>0.6126410354604417</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.891342062025046</v>
+        <v>3.413314142239244</v>
       </c>
       <c r="C24">
-        <v>0.5637426493584314</v>
+        <v>0.1543061686831493</v>
       </c>
       <c r="D24">
-        <v>0.3162704066169226</v>
+        <v>0.4812406754008123</v>
       </c>
       <c r="E24">
-        <v>0.06014220350118293</v>
+        <v>0.1350013654573257</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.285875038615245</v>
+        <v>3.906607324823682</v>
       </c>
       <c r="H24">
-        <v>2.315256976074323</v>
+        <v>2.79777610923486</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02561100151467954</v>
+        <v>0.04205749706993878</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5388838927724322</v>
+        <v>0.5990371358311819</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.99158125038673</v>
+        <v>3.231459051957017</v>
       </c>
       <c r="C25">
-        <v>0.4564583232527752</v>
+        <v>0.1270206434398631</v>
       </c>
       <c r="D25">
-        <v>0.2810109681378634</v>
+        <v>0.4773692859357226</v>
       </c>
       <c r="E25">
-        <v>0.0580023692259708</v>
+        <v>0.1354281985194472</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.695263567181627</v>
+        <v>3.794993238323713</v>
       </c>
       <c r="H25">
-        <v>2.054965251962585</v>
+        <v>2.757804718985653</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02462498063158058</v>
+        <v>0.04165878255760624</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4545881731820032</v>
+        <v>0.5855315558497978</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_177/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_177/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.104166210929861</v>
+        <v>3.357089177052273</v>
       </c>
       <c r="C2">
-        <v>0.1070510703279695</v>
+        <v>0.3798798454621988</v>
       </c>
       <c r="D2">
-        <v>0.4751578269798671</v>
+        <v>0.256973798802008</v>
       </c>
       <c r="E2">
-        <v>0.1358606409969916</v>
+        <v>0.0566898864850458</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.718735986197402</v>
+        <v>3.292554294309184</v>
       </c>
       <c r="H2">
-        <v>2.732116817893342</v>
+        <v>1.879523742396486</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04135229587989553</v>
+        <v>0.02391307374969109</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5765860246627597</v>
+        <v>0.3959001551890253</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.021990669697857</v>
+        <v>2.940350954925691</v>
       </c>
       <c r="C3">
-        <v>0.09358758368014719</v>
+        <v>0.3290078939806165</v>
       </c>
       <c r="D3">
-        <v>0.4740562597430227</v>
+        <v>0.2416636805806149</v>
       </c>
       <c r="E3">
-        <v>0.1362274353605031</v>
+        <v>0.05594270443227245</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.670681800054581</v>
+        <v>3.035414253416945</v>
       </c>
       <c r="H3">
-        <v>2.717013883749246</v>
+        <v>1.768728208601175</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04113641471810769</v>
+        <v>0.02343427329498038</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5711437283538174</v>
+        <v>0.3577878337133598</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.973545632776791</v>
+        <v>2.689822899785327</v>
       </c>
       <c r="C4">
-        <v>0.08535406081310271</v>
+        <v>0.2981432966126079</v>
       </c>
       <c r="D4">
-        <v>0.4735753984476929</v>
+        <v>0.2326838568468901</v>
       </c>
       <c r="E4">
-        <v>0.1364890244904036</v>
+        <v>0.05554788730964866</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.642943213616405</v>
+        <v>2.88409384809691</v>
       </c>
       <c r="H4">
-        <v>2.70886909298099</v>
+        <v>1.704123857199875</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04099979563715372</v>
+        <v>0.02314067917402607</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5681073514895445</v>
+        <v>0.3350793578917006</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.954309131880734</v>
+        <v>2.588918083732608</v>
       </c>
       <c r="C5">
-        <v>0.08200701827757939</v>
+        <v>0.2856411673601542</v>
       </c>
       <c r="D5">
-        <v>0.4734285704765426</v>
+        <v>0.2291218933711576</v>
       </c>
       <c r="E5">
-        <v>0.1366047744477612</v>
+        <v>0.05540224196582599</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.632080969258482</v>
+        <v>2.823917190861664</v>
       </c>
       <c r="H5">
-        <v>2.705832626601421</v>
+        <v>1.678581621657372</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04094309488491366</v>
+        <v>0.02302095028278739</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.566946708174541</v>
+        <v>0.3259827883489237</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.951145428963571</v>
+        <v>2.572230282382463</v>
       </c>
       <c r="C6">
-        <v>0.08145173476222567</v>
+        <v>0.2835692656964</v>
       </c>
       <c r="D6">
-        <v>0.473407155989463</v>
+        <v>0.2285360826683274</v>
       </c>
       <c r="E6">
-        <v>0.1366245473936907</v>
+        <v>0.05537895538256699</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.630303881932917</v>
+        <v>2.814010253980342</v>
       </c>
       <c r="H6">
-        <v>2.705345458358863</v>
+        <v>1.674385626781259</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04093361758331415</v>
+        <v>0.02300105909746541</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5667586158630797</v>
+        <v>0.3244813477458592</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.973284157473529</v>
+        <v>2.688457452896102</v>
       </c>
       <c r="C7">
-        <v>0.08530888846684093</v>
+        <v>0.2979744053934894</v>
       </c>
       <c r="D7">
-        <v>0.4735732194046136</v>
+        <v>0.2326354351944104</v>
       </c>
       <c r="E7">
-        <v>0.1364905484811878</v>
+        <v>0.05554586240868709</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.642794937928358</v>
+        <v>2.883276466432704</v>
       </c>
       <c r="H7">
-        <v>2.708826999461081</v>
+        <v>1.703776305328233</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.040999035116843</v>
+        <v>0.02313906505083452</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5680913881265184</v>
+        <v>0.3349560625587316</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.075414358624698</v>
+        <v>3.212187280961871</v>
       </c>
       <c r="C8">
-        <v>0.1024018965026698</v>
+        <v>0.3622508898421586</v>
       </c>
       <c r="D8">
-        <v>0.4747374066833316</v>
+        <v>0.2516022720400315</v>
       </c>
       <c r="E8">
-        <v>0.1359795636712864</v>
+        <v>0.05641845713077664</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.701798451779183</v>
+        <v>3.202427049014375</v>
       </c>
       <c r="H8">
-        <v>2.726674400826937</v>
+        <v>1.840562375684954</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04127870134942491</v>
+        <v>0.02374778406459921</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5746461422154141</v>
+        <v>0.3826046192070862</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.291686900319746</v>
+        <v>4.289701172938976</v>
       </c>
       <c r="C9">
-        <v>0.1361923589979881</v>
+        <v>0.4921513559191908</v>
       </c>
       <c r="D9">
-        <v>0.4785738972673528</v>
+        <v>0.2925570284290728</v>
       </c>
       <c r="E9">
-        <v>0.1352660634907767</v>
+        <v>0.05867912382174545</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.831661117703646</v>
+        <v>3.888589952896865</v>
       </c>
       <c r="H9">
-        <v>2.770683840174684</v>
+        <v>2.139832390780896</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04179508073577587</v>
+        <v>0.02495416893633173</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5899254255013915</v>
+        <v>0.4823929978225721</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.460412948906878</v>
+        <v>5.124882898723627</v>
       </c>
       <c r="C10">
-        <v>0.161198027986984</v>
+        <v>0.591397236985614</v>
       </c>
       <c r="D10">
-        <v>0.4823438296671867</v>
+        <v>0.3256081326450158</v>
       </c>
       <c r="E10">
-        <v>0.1349177229060352</v>
+        <v>0.06074129975236886</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.93590580236048</v>
+        <v>4.442484140843476</v>
       </c>
       <c r="H10">
-        <v>2.808595873223481</v>
+        <v>2.384731208100106</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04215526569708317</v>
+        <v>0.025863830926248</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6026373009228507</v>
+        <v>0.5609342800886168</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.539325108957314</v>
+        <v>5.517642465847189</v>
       </c>
       <c r="C11">
-        <v>0.1726162168465351</v>
+        <v>0.6377614109700573</v>
       </c>
       <c r="D11">
-        <v>0.4842664409970467</v>
+        <v>0.3414622902493676</v>
       </c>
       <c r="E11">
-        <v>0.1347974457481662</v>
+        <v>0.0617838856447257</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.985292964906876</v>
+        <v>4.708688781606838</v>
       </c>
       <c r="H11">
-        <v>2.827073271420431</v>
+        <v>2.503180908852528</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04231502900741546</v>
+        <v>0.02628697250914058</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6087448649761313</v>
+        <v>0.598156604665121</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.569518609519662</v>
+        <v>5.668544972051905</v>
       </c>
       <c r="C12">
-        <v>0.1769464013268589</v>
+        <v>0.6555316080958562</v>
       </c>
       <c r="D12">
-        <v>0.4850244132779125</v>
+        <v>0.347600758731005</v>
       </c>
       <c r="E12">
-        <v>0.1347573906856407</v>
+        <v>0.06219540342814334</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.004280716410676</v>
+        <v>4.811876005450983</v>
       </c>
       <c r="H12">
-        <v>2.83424864685054</v>
+        <v>2.549205259141615</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04237494517206564</v>
+        <v>0.02644897605892638</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.611104477439369</v>
+        <v>0.61250149384</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.563002044412258</v>
+        <v>5.635943018642422</v>
       </c>
       <c r="C13">
-        <v>0.1760135325757801</v>
+        <v>0.6516943289175288</v>
       </c>
       <c r="D13">
-        <v>0.4848598386302996</v>
+        <v>0.3462724336551588</v>
       </c>
       <c r="E13">
-        <v>0.134765773024581</v>
+        <v>0.06210600287019652</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.000178596798605</v>
+        <v>4.789541016227645</v>
       </c>
       <c r="H13">
-        <v>2.832695345659943</v>
+        <v>2.53923829818001</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0423620669920961</v>
+        <v>0.02641399941000699</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6105942091835743</v>
+        <v>0.6094003528269383</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.541802904646261</v>
+        <v>5.530011701325691</v>
       </c>
       <c r="C14">
-        <v>0.172972335104788</v>
+        <v>0.6392188652656614</v>
       </c>
       <c r="D14">
-        <v>0.4843281998071802</v>
+        <v>0.3419644965589299</v>
       </c>
       <c r="E14">
-        <v>0.1347940403372121</v>
+        <v>0.06181739596193658</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.986849350036152</v>
+        <v>4.71712823754666</v>
       </c>
       <c r="H14">
-        <v>2.827660010874524</v>
+        <v>2.506942926620638</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0423199699967185</v>
+        <v>0.02630026247163286</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.60893805299402</v>
+        <v>0.5993315466456011</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.528858371386093</v>
+        <v>5.46541926821277</v>
       </c>
       <c r="C15">
-        <v>0.1711103482123235</v>
+        <v>0.6316062678950516</v>
       </c>
       <c r="D15">
-        <v>0.4840064541557467</v>
+        <v>0.3393438704365366</v>
       </c>
       <c r="E15">
-        <v>0.1348120700263102</v>
+        <v>0.06164284669147513</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.978722131386007</v>
+        <v>4.673094209980889</v>
       </c>
       <c r="H15">
-        <v>2.824598994854512</v>
+        <v>2.487318514086382</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04229410862968308</v>
+        <v>0.02623083963516493</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6079297085489799</v>
+        <v>0.5931977407585265</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.455299348876395</v>
+        <v>5.099500269616783</v>
       </c>
       <c r="C16">
-        <v>0.1604527029185476</v>
+        <v>0.5883948394804861</v>
       </c>
       <c r="D16">
-        <v>0.4822223661185205</v>
+        <v>0.3245899107379699</v>
       </c>
       <c r="E16">
-        <v>0.1349263517003685</v>
+        <v>0.06067540577015329</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.932718066438753</v>
+        <v>4.425400960168474</v>
       </c>
       <c r="H16">
-        <v>2.807413219510181</v>
+        <v>2.377144892941089</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04214474297418214</v>
+        <v>0.02583640027589951</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6022447023804745</v>
+        <v>0.5585346291939004</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.410726552409528</v>
+        <v>4.878525673211414</v>
       </c>
       <c r="C17">
-        <v>0.1539257198647874</v>
+        <v>0.5622229916751849</v>
       </c>
       <c r="D17">
-        <v>0.4811811127629966</v>
+        <v>0.3157600007383508</v>
       </c>
       <c r="E17">
-        <v>0.1350062399986331</v>
+        <v>0.06010980194389504</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.905001824636003</v>
+        <v>4.277318011279931</v>
       </c>
       <c r="H17">
-        <v>2.797186564101366</v>
+        <v>2.311465792861753</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04205206877331769</v>
+        <v>0.0255970962583234</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5988404071107283</v>
+        <v>0.5376756743304014</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.385292507421013</v>
+        <v>4.752612412752399</v>
       </c>
       <c r="C18">
-        <v>0.1501756063244102</v>
+        <v>0.5472815609454642</v>
       </c>
       <c r="D18">
-        <v>0.4806017525541506</v>
+        <v>0.3107572073191847</v>
       </c>
       <c r="E18">
-        <v>0.1350557837221285</v>
+        <v>0.05979420278281111</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.889245004014214</v>
+        <v>4.193461849826377</v>
       </c>
       <c r="H18">
-        <v>2.791420249519575</v>
+        <v>2.274341271389801</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0419983800713446</v>
+        <v>0.0254603037941159</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.596912918556086</v>
+        <v>0.5258163670725367</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.376715824723192</v>
+        <v>4.71017473401497</v>
       </c>
       <c r="C19">
-        <v>0.1489065697950309</v>
+        <v>0.5422408039779327</v>
       </c>
       <c r="D19">
-        <v>0.4804089455388407</v>
+        <v>0.3090759088935613</v>
       </c>
       <c r="E19">
-        <v>0.1350731756567871</v>
+        <v>0.0596889683669275</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.88394166176181</v>
+        <v>4.165286427089598</v>
       </c>
       <c r="H19">
-        <v>2.78948771967481</v>
+        <v>2.261879170591897</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0419801357356242</v>
+        <v>0.02541412215449412</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5962655520469866</v>
+        <v>0.5218237674631894</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.41545038173291</v>
+        <v>4.901923881086134</v>
       </c>
       <c r="C20">
-        <v>0.1546201094986372</v>
+        <v>0.5649971882229465</v>
       </c>
       <c r="D20">
-        <v>0.4812899330873393</v>
+        <v>0.3166919846645868</v>
       </c>
       <c r="E20">
-        <v>0.1349973637770088</v>
+        <v>0.06016899386587227</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.907933113516634</v>
+        <v>4.292943099061318</v>
       </c>
       <c r="H20">
-        <v>2.798263215666196</v>
+        <v>2.31838886342706</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04206197390575817</v>
+        <v>0.02562247986014654</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5991996353983637</v>
+        <v>0.5398816051051654</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.548021153205298</v>
+        <v>5.561064463515663</v>
       </c>
       <c r="C21">
-        <v>0.1738654343031101</v>
+        <v>0.6428770943298616</v>
       </c>
       <c r="D21">
-        <v>0.4844835424646448</v>
+        <v>0.343226033979235</v>
       </c>
       <c r="E21">
-        <v>0.1347855885059648</v>
+        <v>0.06190169854620287</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.990756687581779</v>
+        <v>4.738330083729522</v>
       </c>
       <c r="H21">
-        <v>2.829134158443935</v>
+        <v>2.516395736334744</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04233235068027241</v>
+        <v>0.02633361798070233</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6094232349989994</v>
+        <v>0.6022819211902402</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.636478058440048</v>
+        <v>6.004706467571737</v>
       </c>
       <c r="C22">
-        <v>0.1864805524337498</v>
+        <v>0.6950404375879486</v>
       </c>
       <c r="D22">
-        <v>0.4867451843504824</v>
+        <v>0.3613633659161906</v>
       </c>
       <c r="E22">
-        <v>0.1346791889329229</v>
+        <v>0.06313250762182498</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.046554680358383</v>
+        <v>5.043489615451961</v>
       </c>
       <c r="H22">
-        <v>2.850350519552478</v>
+        <v>2.652715318280457</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0425056632534595</v>
+        <v>0.02680895433863562</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6163778447107973</v>
+        <v>0.6445391584846618</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.589100630513656</v>
+        <v>5.766628354906686</v>
       </c>
       <c r="C23">
-        <v>0.1797441614265836</v>
+        <v>0.6670699647717981</v>
       </c>
       <c r="D23">
-        <v>0.4855221218375192</v>
+        <v>0.3516039950130505</v>
       </c>
       <c r="E23">
-        <v>0.1347330474698634</v>
+        <v>0.06246597520963526</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.016620541295083</v>
+        <v>4.879208434201814</v>
       </c>
       <c r="H23">
-        <v>2.838931294206759</v>
+        <v>2.579268346981621</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04241347200254353</v>
+        <v>0.02655413008088559</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6126410354604417</v>
+        <v>0.6218377788948573</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.413314142239244</v>
+        <v>4.891342062025046</v>
       </c>
       <c r="C24">
-        <v>0.1543061686831493</v>
+        <v>0.5637426493581472</v>
       </c>
       <c r="D24">
-        <v>0.4812406754008123</v>
+        <v>0.3162704066168089</v>
       </c>
       <c r="E24">
-        <v>0.1350013654573257</v>
+        <v>0.060142203501238</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.906607324823682</v>
+        <v>4.285875038615274</v>
       </c>
       <c r="H24">
-        <v>2.79777610923486</v>
+        <v>2.315256976074295</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04205749706993878</v>
+        <v>0.02561100151465823</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5990371358311819</v>
+        <v>0.538883892772489</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.231459051957017</v>
+        <v>3.991581250387071</v>
       </c>
       <c r="C25">
-        <v>0.1270206434398631</v>
+        <v>0.4564583232525479</v>
       </c>
       <c r="D25">
-        <v>0.4773692859357226</v>
+        <v>0.2810109681377355</v>
       </c>
       <c r="E25">
-        <v>0.1354281985194472</v>
+        <v>0.05800236922599922</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.794993238323713</v>
+        <v>3.695263567181655</v>
       </c>
       <c r="H25">
-        <v>2.757804718985653</v>
+        <v>2.054965251962557</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04165878255760624</v>
+        <v>0.02462498063134255</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5855315558497978</v>
+        <v>0.4545881731821453</v>
       </c>
       <c r="M25">
         <v>0</v>
